--- a/Microsoft_Excel_Problem_Solving.xlsx
+++ b/Microsoft_Excel_Problem_Solving.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621F6DA-965D-4BDF-9680-A8269A66FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956257E-A229-4AD9-B436-728DC1D50AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Removing_Duplicates" sheetId="1" r:id="rId1"/>
+    <sheet name="02_Difference_Between_Dates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Account Number</t>
   </si>
@@ -34,6 +35,27 @@
   </si>
   <si>
     <t>To remove duplicates, Go to &gt;&gt; Data Tab &gt;&gt; select your data &gt;&gt; click on remove duplicates &gt;&gt; click on continue with the current selection &gt;&gt; ok</t>
+  </si>
+  <si>
+    <t>Difference(Years)</t>
+  </si>
+  <si>
+    <t>Difference(Months)</t>
+  </si>
+  <si>
+    <t>Difference(Days)</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>USING DATEDIF()</t>
+  </si>
+  <si>
+    <t>USING YEARFRAC()</t>
   </si>
 </sst>
 </file>
@@ -77,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -88,6 +110,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,4 +468,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF9D28-1A0A-479A-A636-63088A06BABF}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f ca="1">TODAY()</f>
+        <v>45483</v>
+      </c>
+      <c r="B2" s="5">
+        <v>34448</v>
+      </c>
+      <c r="C2">
+        <f ca="1">DATEDIF(B2,A2,"Y")</f>
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <f ca="1">DATEDIF(B2,A2,"M")</f>
+        <v>362</v>
+      </c>
+      <c r="E2">
+        <f ca="1">DATEDIF(B2,A2,"D")</f>
+        <v>11035</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <f ca="1">ROUND(YEARFRAC(B2,A2,),2)</f>
+        <v>30.21</v>
+      </c>
+      <c r="D3" s="6">
+        <f ca="1">ROUND(YEARFRAC(B2,A2,),2) * 365</f>
+        <v>11026.65</v>
+      </c>
+      <c r="E3" s="6">
+        <f ca="1">ROUND(YEARFRAC(B2,A2),2) * 12</f>
+        <v>362.52</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Microsoft_Excel_Problem_Solving.xlsx
+++ b/Microsoft_Excel_Problem_Solving.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956257E-A229-4AD9-B436-728DC1D50AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA16B33C-CE59-4559-B56C-CD2369F9ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Account Number</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>USING YEARFRAC()</t>
+  </si>
+  <si>
+    <t>Elapsed Difference</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,7 +115,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,16 +474,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF9D28-1A0A-479A-A636-63088A06BABF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -532,16 +534,27 @@
         <f ca="1">ROUND(YEARFRAC(B2,A2,),2)</f>
         <v>30.21</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <f ca="1">ROUND(YEARFRAC(B2,A2,),2) * 365</f>
         <v>11026.65</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <f ca="1">ROUND(YEARFRAC(B2,A2),2) * 12</f>
         <v>362.52</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="str">
+        <f ca="1">DATEDIF(B2,A2,"Y") &amp; " YEARS " &amp; DATEDIF(B2,A2,"YM") &amp; " MONTHS " &amp; DATEDIF(B2,A2,"MD") &amp; " DAYS "</f>
+        <v xml:space="preserve">30 YEARS 2 MONTHS 16 DAYS </v>
       </c>
     </row>
   </sheetData>

--- a/Microsoft_Excel_Problem_Solving.xlsx
+++ b/Microsoft_Excel_Problem_Solving.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA16B33C-CE59-4559-B56C-CD2369F9ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F155A5A0-82C3-47F4-9D33-1DCD174F0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Removing_Duplicates" sheetId="1" r:id="rId1"/>
     <sheet name="02_Difference_Between_Dates" sheetId="2" r:id="rId2"/>
+    <sheet name="03_Difference_Between_TimeStamp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Account Number</t>
   </si>
@@ -59,12 +60,30 @@
   </si>
   <si>
     <t>Elapsed Difference</t>
+  </si>
+  <si>
+    <t>TIME1</t>
+  </si>
+  <si>
+    <t>TIME2</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>SECONDS</t>
+  </si>
+  <si>
+    <t>MINUTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,6 +134,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF9D28-1A0A-479A-A636-63088A06BABF}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -560,4 +581,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9FB33-EFCA-467D-9BC1-738EF5D11B5E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0.34850694444444447</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.36857638888888888</v>
+      </c>
+      <c r="C2" s="7">
+        <f>(B2-A2) * 24</f>
+        <v>0.48166666666666602</v>
+      </c>
+      <c r="D2" s="7">
+        <f>(B2-A2) * 24 * 60</f>
+        <v>28.899999999999963</v>
+      </c>
+      <c r="E2" s="7">
+        <f>(B2-A2)*24*60*60</f>
+        <v>1733.9999999999977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="str">
+        <f>TEXT(B2-A2,"H")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f>TEXT(B2-A2,"H:MM")</f>
+        <v>0:28</v>
+      </c>
+      <c r="E4" t="str">
+        <f>TEXT(B2-A2,"H:MM:SS")</f>
+        <v>0:28:54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Microsoft_Excel_Problem_Solving.xlsx
+++ b/Microsoft_Excel_Problem_Solving.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F155A5A0-82C3-47F4-9D33-1DCD174F0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37021D0D-F73A-4830-9CBC-BFBED0CF7D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Removing_Duplicates" sheetId="1" r:id="rId1"/>
     <sheet name="02_Difference_Between_Dates" sheetId="2" r:id="rId2"/>
     <sheet name="03_Difference_Between_TimeStamp" sheetId="3" r:id="rId3"/>
+    <sheet name="04_Join_Tables" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Account Number</t>
   </si>
@@ -75,6 +76,36 @@
   </si>
   <si>
     <t>MINUTES</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>BOBBY</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>SAMANTHA</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>Use Consolidate Data from Data Tab</t>
   </si>
 </sst>
 </file>
@@ -82,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,8 +165,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9FB33-EFCA-467D-9BC1-738EF5D11B5E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -623,15 +653,15 @@
       <c r="B2" s="6">
         <v>0.36857638888888888</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <f>(B2-A2) * 24</f>
         <v>0.48166666666666602</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <f>(B2-A2) * 24 * 60</f>
         <v>28.899999999999963</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <f>(B2-A2)*24*60*60</f>
         <v>1733.9999999999977</v>
       </c>
@@ -653,4 +683,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3A79E-4881-4BF8-B592-F1109CA28CAA}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>82</v>
+      </c>
+      <c r="M2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>56</v>
+      </c>
+      <c r="M3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1">
+    <dataRefs count="2">
+      <dataRef ref="A1:B5" sheet="04_Join_Tables"/>
+      <dataRef ref="D1:E5" sheet="04_Join_Tables"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>